--- a/Code/Results/Cases/Case_2_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_131/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.951420538211579</v>
+        <v>0.8668301361480815</v>
       </c>
       <c r="C2">
-        <v>0.3077534691506685</v>
+        <v>0.3913830654369832</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1052720037376336</v>
+        <v>0.2911693146178109</v>
       </c>
       <c r="F2">
-        <v>0.889078793664126</v>
+        <v>1.693958096448057</v>
       </c>
       <c r="G2">
-        <v>0.3127510845319961</v>
+        <v>0.4894475107197138</v>
       </c>
       <c r="H2">
-        <v>0.2611066779549702</v>
+        <v>0.6351169897501734</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06435609794809594</v>
+        <v>0.03785625716331964</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3044655910267693</v>
+        <v>0.4733758092774849</v>
       </c>
       <c r="M2">
-        <v>0.4106294632655008</v>
+        <v>0.2872598945466933</v>
       </c>
       <c r="N2">
-        <v>0.8228906664780098</v>
+        <v>1.371259889002964</v>
       </c>
       <c r="O2">
-        <v>1.15917653881732</v>
+        <v>2.211005508782762</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.697938744049026</v>
+        <v>0.7913447093798709</v>
       </c>
       <c r="C3">
-        <v>0.2968030185612633</v>
+        <v>0.3879792132131143</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1053233287089732</v>
+        <v>0.2926701382564314</v>
       </c>
       <c r="F3">
-        <v>0.8466554707344542</v>
+        <v>1.695403417438818</v>
       </c>
       <c r="G3">
-        <v>0.2948878164013138</v>
+        <v>0.4895540128132652</v>
       </c>
       <c r="H3">
-        <v>0.2581610041812752</v>
+        <v>0.6388070456828814</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05854288919429962</v>
+        <v>0.03589546736919758</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2781593580587298</v>
+        <v>0.4682654592467514</v>
       </c>
       <c r="M3">
-        <v>0.3595952087107861</v>
+        <v>0.2731674853945449</v>
       </c>
       <c r="N3">
-        <v>0.8403523080029274</v>
+        <v>1.380507341196122</v>
       </c>
       <c r="O3">
-        <v>1.114794125988169</v>
+        <v>2.218697368680481</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.542424545891578</v>
+        <v>0.7450806083366217</v>
       </c>
       <c r="C4">
-        <v>0.290110876604615</v>
+        <v>0.385907596297983</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1054727013615846</v>
+        <v>0.293680579179485</v>
       </c>
       <c r="F4">
-        <v>0.8220659022223842</v>
+        <v>1.697154269175819</v>
       </c>
       <c r="G4">
-        <v>0.2846453913193727</v>
+        <v>0.4899658110189264</v>
       </c>
       <c r="H4">
-        <v>0.2568169674987857</v>
+        <v>0.6413583086783348</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05496395944639687</v>
+        <v>0.03468315429760338</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.262219031237251</v>
+        <v>0.465288173938589</v>
       </c>
       <c r="M4">
-        <v>0.3283629174594722</v>
+        <v>0.2645912384408859</v>
       </c>
       <c r="N4">
-        <v>0.8520220476224765</v>
+        <v>1.386666153842171</v>
       </c>
       <c r="O4">
-        <v>1.090045016270281</v>
+        <v>2.224743154001686</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.479067227182554</v>
+        <v>0.7262502167925788</v>
       </c>
       <c r="C5">
-        <v>0.2873913898210247</v>
+        <v>0.3850681315511366</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1055625624881653</v>
+        <v>0.2941147443753245</v>
       </c>
       <c r="F5">
-        <v>0.8123956290690799</v>
+        <v>1.698085079305656</v>
       </c>
       <c r="G5">
-        <v>0.280643982795489</v>
+        <v>0.4902206704576386</v>
       </c>
       <c r="H5">
-        <v>0.2563816467981326</v>
+        <v>0.6424698272742617</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05350289685336307</v>
+        <v>0.03418704770137637</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2557735870634161</v>
+        <v>0.4641154544250554</v>
       </c>
       <c r="M5">
-        <v>0.3156577500729938</v>
+        <v>0.2611158948211525</v>
       </c>
       <c r="N5">
-        <v>0.8570098123533683</v>
+        <v>1.389296985060895</v>
       </c>
       <c r="O5">
-        <v>1.080558104784004</v>
+        <v>2.227539509889056</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.468547326065817</v>
+        <v>0.7231248516869471</v>
       </c>
       <c r="C6">
-        <v>0.286940272928959</v>
+        <v>0.3849290286063365</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1055792164008853</v>
+        <v>0.2941881914067377</v>
       </c>
       <c r="F6">
-        <v>0.8108105659032319</v>
+        <v>1.698252771620893</v>
       </c>
       <c r="G6">
-        <v>0.2799896836558489</v>
+        <v>0.490268245471718</v>
       </c>
       <c r="H6">
-        <v>0.2563160236180622</v>
+        <v>0.6426587357232023</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05326012447029882</v>
+        <v>0.03410454482709113</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.254706286211956</v>
+        <v>0.4639231799114185</v>
       </c>
       <c r="M6">
-        <v>0.3135493076094988</v>
+        <v>0.2605400059929224</v>
       </c>
       <c r="N6">
-        <v>0.857851878960453</v>
+        <v>1.389741149207623</v>
       </c>
       <c r="O6">
-        <v>1.079018093160656</v>
+        <v>2.228023933342669</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.541570041890623</v>
+        <v>0.7448265616833396</v>
       </c>
       <c r="C7">
-        <v>0.2900741701932787</v>
+        <v>0.3858962556483618</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1054737967135022</v>
+        <v>0.2936863437231931</v>
       </c>
       <c r="F7">
-        <v>0.8219340890861488</v>
+        <v>1.697165942192058</v>
       </c>
       <c r="G7">
-        <v>0.2845907415503106</v>
+        <v>0.4899688957646973</v>
       </c>
       <c r="H7">
-        <v>0.2568106473004477</v>
+        <v>0.6413730079848534</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05494426591780055</v>
+        <v>0.03467647201143365</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2621319055038924</v>
+        <v>0.465272193798981</v>
       </c>
       <c r="M7">
-        <v>0.3281914857298389</v>
+        <v>0.2645442892030303</v>
       </c>
       <c r="N7">
-        <v>0.8520883819429059</v>
+        <v>1.386701143757982</v>
       </c>
       <c r="O7">
-        <v>1.089914688363848</v>
+        <v>2.224779519775893</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.863984543907577</v>
+        <v>0.8407861003877031</v>
       </c>
       <c r="C8">
-        <v>0.303971025891542</v>
+        <v>0.3902056760042996</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1052648421172169</v>
+        <v>0.2916683655288121</v>
       </c>
       <c r="F8">
-        <v>0.8741383015729554</v>
+        <v>1.694277362816699</v>
       </c>
       <c r="G8">
-        <v>0.3064350400222082</v>
+        <v>0.4894122997775625</v>
       </c>
       <c r="H8">
-        <v>0.2599918383972977</v>
+        <v>0.6363300859648575</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06235356591520613</v>
+        <v>0.03718193247985013</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.295349449524366</v>
+        <v>0.4715805634760812</v>
       </c>
       <c r="M8">
-        <v>0.393009216621806</v>
+        <v>0.2823851178843952</v>
       </c>
       <c r="N8">
-        <v>0.8287108248653894</v>
+        <v>1.37434870370484</v>
       </c>
       <c r="O8">
-        <v>1.143335390797461</v>
+        <v>2.21338306850933</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.497995980293979</v>
+        <v>1.02957798016115</v>
       </c>
       <c r="C9">
-        <v>0.3314892029420236</v>
+        <v>0.3987973800178253</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1058207340672386</v>
+        <v>0.2884149804777021</v>
       </c>
       <c r="F9">
-        <v>0.9888719157941068</v>
+        <v>1.69545630977953</v>
       </c>
       <c r="G9">
-        <v>0.3555055662147311</v>
+        <v>0.4910727635191279</v>
       </c>
       <c r="H9">
-        <v>0.2701277893061587</v>
+        <v>0.628704560970121</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07681755697254289</v>
+        <v>0.04202761650287101</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3623102270264411</v>
+        <v>0.4852172251377169</v>
       </c>
       <c r="M9">
-        <v>0.5211138355874567</v>
+        <v>0.3179671020490034</v>
       </c>
       <c r="N9">
-        <v>0.7906837789892123</v>
+        <v>1.35393427786795</v>
       </c>
       <c r="O9">
-        <v>1.269395926308022</v>
+        <v>2.201534717473663</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.966057355110024</v>
+        <v>1.168601037914016</v>
       </c>
       <c r="C10">
-        <v>0.3518972501198476</v>
+        <v>0.4051899202546423</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1068622643735075</v>
+        <v>0.2864514975528394</v>
       </c>
       <c r="F10">
-        <v>1.081860912688612</v>
+        <v>1.700487196284158</v>
       </c>
       <c r="G10">
-        <v>0.3960566350070422</v>
+        <v>0.493976120601161</v>
       </c>
       <c r="H10">
-        <v>0.2802605514019376</v>
+        <v>0.6244795679008917</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08742061187120953</v>
+        <v>0.04554551687598973</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4128275714138141</v>
+        <v>0.4959992746114636</v>
       </c>
       <c r="M10">
-        <v>0.6161152404015695</v>
+        <v>0.3444603146920215</v>
       </c>
       <c r="N10">
-        <v>0.7679373260119746</v>
+        <v>1.341249106349977</v>
       </c>
       <c r="O10">
-        <v>1.37712981572588</v>
+        <v>2.199238237231754</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.179763815534159</v>
+        <v>1.231903822725656</v>
       </c>
       <c r="C11">
-        <v>0.3612298465187251</v>
+        <v>0.408114307597188</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1074839026360195</v>
+        <v>0.2856504440029966</v>
       </c>
       <c r="F11">
-        <v>1.126323961191474</v>
+        <v>1.703678843426999</v>
       </c>
       <c r="G11">
-        <v>0.4156457829330975</v>
+        <v>0.4956637650685849</v>
       </c>
       <c r="H11">
-        <v>0.2855264380242772</v>
+        <v>0.6228561200700966</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09224296687225575</v>
+        <v>0.0471365232056371</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4361460607549787</v>
+        <v>0.501068298984606</v>
       </c>
       <c r="M11">
-        <v>0.6595912933544597</v>
+        <v>0.3565865617552149</v>
       </c>
       <c r="N11">
-        <v>0.7588172399327817</v>
+        <v>1.335978885319577</v>
       </c>
       <c r="O11">
-        <v>1.429925169047806</v>
+        <v>2.199586846457493</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.260825944594899</v>
+        <v>1.255882374892906</v>
       </c>
       <c r="C12">
-        <v>0.3647714946723397</v>
+        <v>0.4092239428287172</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1077414670412757</v>
+        <v>0.2853603167826577</v>
       </c>
       <c r="F12">
-        <v>1.143495790357122</v>
+        <v>1.705017131970692</v>
       </c>
       <c r="G12">
-        <v>0.4232425113850411</v>
+        <v>0.4963556732529497</v>
       </c>
       <c r="H12">
-        <v>0.2876213734674167</v>
+        <v>0.6222842457513735</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09406923917703836</v>
+        <v>0.04773763276673293</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4450290851775094</v>
+        <v>0.5030112455388434</v>
       </c>
       <c r="M12">
-        <v>0.6760975221842074</v>
+        <v>0.3611888808570072</v>
       </c>
       <c r="N12">
-        <v>0.7555491714070399</v>
+        <v>1.334055007124697</v>
       </c>
       <c r="O12">
-        <v>1.450506402575854</v>
+        <v>2.199919297946053</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.243361316921153</v>
+        <v>1.250717870620463</v>
       </c>
       <c r="C13">
-        <v>0.3640083898386592</v>
+        <v>0.4089848656645216</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1076849952803123</v>
+        <v>0.2854222137287543</v>
       </c>
       <c r="F13">
-        <v>1.139782252524952</v>
+        <v>1.704723142864424</v>
       </c>
       <c r="G13">
-        <v>0.4215982297102556</v>
+        <v>0.4962043074628042</v>
       </c>
       <c r="H13">
-        <v>0.2871655985533721</v>
+        <v>0.622405502156937</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09367590707571338</v>
+        <v>0.04760823451041318</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4431135475144004</v>
+        <v>0.5025917588925353</v>
       </c>
       <c r="M13">
-        <v>0.6725406158481988</v>
+        <v>0.3601972328521299</v>
       </c>
       <c r="N13">
-        <v>0.7562446084819925</v>
+        <v>1.33446615525942</v>
       </c>
       <c r="O13">
-        <v>1.44604694437092</v>
+        <v>2.199838782549335</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.186429976429963</v>
+        <v>1.233876417923511</v>
       </c>
       <c r="C14">
-        <v>0.3615210643339424</v>
+        <v>0.4082055539030875</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1075046430687578</v>
+        <v>0.2856263104316064</v>
       </c>
       <c r="F14">
-        <v>1.127729849943236</v>
+        <v>1.703786347263645</v>
       </c>
       <c r="G14">
-        <v>0.4162671017861328</v>
+        <v>0.4957196294762554</v>
       </c>
       <c r="H14">
-        <v>0.2856967297660731</v>
+        <v>0.6228082122555492</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09239321058533534</v>
+        <v>0.04718600449201915</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4368757887505978</v>
+        <v>0.5012276781829428</v>
       </c>
       <c r="M14">
-        <v>0.6609483803435765</v>
+        <v>0.356964991264519</v>
       </c>
       <c r="N14">
-        <v>0.7585446025032141</v>
+        <v>1.335819167514678</v>
       </c>
       <c r="O14">
-        <v>1.431606335863762</v>
+        <v>2.199610179819047</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.151576342772614</v>
+        <v>1.223561428863491</v>
       </c>
       <c r="C15">
-        <v>0.3599985127944052</v>
+        <v>0.4077284901241853</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1073970861552063</v>
+        <v>0.2857530453926849</v>
       </c>
       <c r="F15">
-        <v>1.120391715245844</v>
+        <v>1.703229415853144</v>
       </c>
       <c r="G15">
-        <v>0.4130253554051819</v>
+        <v>0.4954296329504615</v>
       </c>
       <c r="H15">
-        <v>0.2848103388782306</v>
+        <v>0.6230604682828016</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09160755082315575</v>
+        <v>0.04692719704540593</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.433061990145589</v>
+        <v>0.5003951831042031</v>
       </c>
       <c r="M15">
-        <v>0.6538535434033506</v>
+        <v>0.3549864913010126</v>
       </c>
       <c r="N15">
-        <v>0.7599778509242157</v>
+        <v>1.336657279204331</v>
       </c>
       <c r="O15">
-        <v>1.422839084567272</v>
+        <v>2.199496259897472</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.952108864237459</v>
+        <v>1.164465137907257</v>
       </c>
       <c r="C16">
-        <v>0.3512883737320038</v>
+        <v>0.404999123879378</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1068246899560243</v>
+        <v>0.2865056993997221</v>
       </c>
       <c r="F16">
-        <v>1.079000648806655</v>
+        <v>1.700296771431852</v>
       </c>
       <c r="G16">
-        <v>0.3948006409766407</v>
+        <v>0.4938732183358638</v>
       </c>
       <c r="H16">
-        <v>0.279930165738719</v>
+        <v>0.6245916679049799</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08710546407393593</v>
+        <v>0.04544135090640822</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4113108080004793</v>
+        <v>0.4956712895501028</v>
       </c>
       <c r="M16">
-        <v>0.6132796587584437</v>
+        <v>0.3436693047862818</v>
       </c>
       <c r="N16">
-        <v>0.7685588015102738</v>
+        <v>1.341603586374887</v>
       </c>
       <c r="O16">
-        <v>1.373759432483666</v>
+        <v>2.199243498875518</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.829958782217375</v>
+        <v>1.128225877647878</v>
       </c>
       <c r="C17">
-        <v>0.3459578895369191</v>
+        <v>0.4033288556000798</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1065120369356052</v>
+        <v>0.2869910031250669</v>
       </c>
       <c r="F17">
-        <v>1.05417873527729</v>
+        <v>1.698728860086661</v>
       </c>
       <c r="G17">
-        <v>0.3839229522509555</v>
+        <v>0.4930124322546305</v>
       </c>
       <c r="H17">
-        <v>0.2771089383017653</v>
+        <v>0.625607441717591</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08434352323281047</v>
+        <v>0.04452742660575382</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3980566300130874</v>
+        <v>0.4928152533132675</v>
       </c>
       <c r="M17">
-        <v>0.5884591255355431</v>
+        <v>0.3367453935228539</v>
       </c>
       <c r="N17">
-        <v>0.7741435450492773</v>
+        <v>1.344766054536827</v>
       </c>
       <c r="O17">
-        <v>1.344651129702754</v>
+        <v>2.199445356043128</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.759773475897759</v>
+        <v>1.107387799881394</v>
       </c>
       <c r="C18">
-        <v>0.3428964987614194</v>
+        <v>0.4023697113884452</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1063460656917847</v>
+        <v>0.2872788122265746</v>
       </c>
       <c r="F18">
-        <v>1.040103808011139</v>
+        <v>1.697912051155754</v>
       </c>
       <c r="G18">
-        <v>0.3777729885357815</v>
+        <v>0.4925518601363734</v>
       </c>
       <c r="H18">
-        <v>0.2755476197260975</v>
+        <v>0.6262197885275782</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08275481216627867</v>
+        <v>0.04400088768815635</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3904647127666152</v>
+        <v>0.491188005371427</v>
       </c>
       <c r="M18">
-        <v>0.5742070801748369</v>
+        <v>0.3327699602993661</v>
       </c>
       <c r="N18">
-        <v>0.7774706985315731</v>
+        <v>1.346632121842411</v>
       </c>
       <c r="O18">
-        <v>1.328262411424646</v>
+        <v>2.199692596885683</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.736021646404652</v>
+        <v>1.100333425490533</v>
       </c>
       <c r="C19">
-        <v>0.3418607317201605</v>
+        <v>0.4020452316116518</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1062922241402653</v>
+        <v>0.2873777505191093</v>
       </c>
       <c r="F19">
-        <v>1.035372269339234</v>
+        <v>1.697650100062731</v>
       </c>
       <c r="G19">
-        <v>0.3757085976894956</v>
+        <v>0.4924018464580087</v>
       </c>
       <c r="H19">
-        <v>0.2750293353406335</v>
+        <v>0.6264319460693599</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08221687321377402</v>
+        <v>0.04382246155269343</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3878995117902804</v>
+        <v>0.4906397099228457</v>
       </c>
       <c r="M19">
-        <v>0.5693855554373783</v>
+        <v>0.3314251618923549</v>
       </c>
       <c r="N19">
-        <v>0.7786166935549019</v>
+        <v>1.347272032815688</v>
       </c>
       <c r="O19">
-        <v>1.322772902148586</v>
+        <v>2.199798828753984</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.842954230513385</v>
+        <v>1.132083021060055</v>
       </c>
       <c r="C20">
-        <v>0.3465248525191384</v>
+        <v>0.4035064989950143</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1065438786883313</v>
+        <v>0.2869384441215672</v>
       </c>
       <c r="F20">
-        <v>1.056799998582974</v>
+        <v>1.698886969778073</v>
       </c>
       <c r="G20">
-        <v>0.385069766562637</v>
+        <v>0.493100490204526</v>
       </c>
       <c r="H20">
-        <v>0.2774028650028981</v>
+        <v>0.6254964028244387</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08463754642377097</v>
+        <v>0.04462480607803343</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.399464266321317</v>
+        <v>0.4931176837359459</v>
       </c>
       <c r="M20">
-        <v>0.5910987841200708</v>
+        <v>0.3374817317345418</v>
       </c>
       <c r="N20">
-        <v>0.7735370784084665</v>
+        <v>1.344424530586764</v>
       </c>
       <c r="O20">
-        <v>1.347712849478313</v>
+        <v>2.19941029507612</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.203148200436203</v>
+        <v>1.238822978715689</v>
       </c>
       <c r="C21">
-        <v>0.362251441141126</v>
+        <v>0.4084343970312716</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1075570079210451</v>
+        <v>0.2855660039339973</v>
       </c>
       <c r="F21">
-        <v>1.131260654108786</v>
+        <v>1.704057988772277</v>
       </c>
       <c r="G21">
-        <v>0.4178280121788589</v>
+        <v>0.4958605566615546</v>
       </c>
       <c r="H21">
-        <v>0.286125381287988</v>
+        <v>0.6226887628066038</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09276996305965213</v>
+        <v>0.04731006112128</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4387065011493547</v>
+        <v>0.5016277077914992</v>
       </c>
       <c r="M21">
-        <v>0.6643520939411545</v>
+        <v>0.3579141000051607</v>
       </c>
       <c r="N21">
-        <v>0.7578639292806955</v>
+        <v>1.335419806125806</v>
       </c>
       <c r="O21">
-        <v>1.435831546481438</v>
+        <v>2.199671885394224</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.439361441837377</v>
+        <v>1.308624741012295</v>
       </c>
       <c r="C22">
-        <v>0.3725742604426614</v>
+        <v>0.4116680232773433</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1083487881605265</v>
+        <v>0.2847460418271872</v>
       </c>
       <c r="F22">
-        <v>1.181887621443778</v>
+        <v>1.708193344553408</v>
       </c>
       <c r="G22">
-        <v>0.4402866742178588</v>
+        <v>0.4979724097556044</v>
       </c>
       <c r="H22">
-        <v>0.2924172346030787</v>
+        <v>0.6211037871548086</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09808600080467045</v>
+        <v>0.04905703012134666</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4646636008427549</v>
+        <v>0.5073259014686613</v>
       </c>
       <c r="M22">
-        <v>0.7124796135923432</v>
+        <v>0.3713281447895653</v>
       </c>
       <c r="N22">
-        <v>0.7487064941441304</v>
+        <v>1.329953390764587</v>
       </c>
       <c r="O22">
-        <v>1.496876683269022</v>
+        <v>2.201011210582976</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.313208037283061</v>
+        <v>1.271366980399932</v>
       </c>
       <c r="C23">
-        <v>0.3670604946880189</v>
+        <v>0.4099410308892573</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1079140260209854</v>
+        <v>0.2851766367380399</v>
       </c>
       <c r="F23">
-        <v>1.154679237099586</v>
+        <v>1.705917131683805</v>
       </c>
       <c r="G23">
-        <v>0.4281990246293077</v>
+        <v>0.4968170683956998</v>
       </c>
       <c r="H23">
-        <v>0.2890028149911927</v>
+        <v>0.6219268575888037</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09524853310526282</v>
+        <v>0.04812538254688548</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4507799702905118</v>
+        <v>0.5042722526471408</v>
       </c>
       <c r="M23">
-        <v>0.6867680557169038</v>
+        <v>0.364163403586339</v>
       </c>
       <c r="N23">
-        <v>0.7534915106570139</v>
+        <v>1.332832643254605</v>
       </c>
       <c r="O23">
-        <v>1.463964284740996</v>
+        <v>2.200189454213842</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.837078864250941</v>
+        <v>1.130339217756614</v>
       </c>
       <c r="C24">
-        <v>0.3462685187055996</v>
+        <v>0.4034261829322361</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1065294401870069</v>
+        <v>0.2869621786287198</v>
       </c>
       <c r="F24">
-        <v>1.05561431821647</v>
+        <v>1.69881522483891</v>
       </c>
       <c r="G24">
-        <v>0.3845509696940184</v>
+        <v>0.4930605723528458</v>
       </c>
       <c r="H24">
-        <v>0.2772697923367815</v>
+        <v>0.6255465151500488</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0845046211608107</v>
+        <v>0.04458078427898471</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3988277867806289</v>
+        <v>0.4929809090598667</v>
       </c>
       <c r="M24">
-        <v>0.5899053400333329</v>
+        <v>0.3371488169588375</v>
       </c>
       <c r="N24">
-        <v>0.7738109000610294</v>
+        <v>1.344578784281588</v>
       </c>
       <c r="O24">
-        <v>1.346327571467015</v>
+        <v>2.199425737496227</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.326173657842389</v>
+        <v>0.978444838160101</v>
       </c>
       <c r="C25">
-        <v>0.3240135532783341</v>
+        <v>0.3964585997531032</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1055625186206974</v>
+        <v>0.2892199936559692</v>
       </c>
       <c r="F25">
-        <v>0.9563943516535716</v>
+        <v>1.694405479109179</v>
       </c>
       <c r="G25">
-        <v>0.3414936085036118</v>
+        <v>0.4903283507331793</v>
       </c>
       <c r="H25">
-        <v>0.2669375861715082</v>
+        <v>0.6305253882793806</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07291005385702221</v>
+        <v>0.04072406832683839</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3439795459279651</v>
+        <v>0.4813935029359442</v>
       </c>
       <c r="M25">
-        <v>0.4863240421389534</v>
+        <v>0.3082786820899557</v>
       </c>
       <c r="N25">
-        <v>0.800091755333689</v>
+        <v>1.359050076991849</v>
       </c>
       <c r="O25">
-        <v>1.232800084935576</v>
+        <v>2.203615136609614</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_131/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8668301361480815</v>
+        <v>1.95142053821138</v>
       </c>
       <c r="C2">
-        <v>0.3913830654369832</v>
+        <v>0.3077534691506827</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2911693146178109</v>
+        <v>0.1052720037376478</v>
       </c>
       <c r="F2">
-        <v>1.693958096448057</v>
+        <v>0.8890787936641118</v>
       </c>
       <c r="G2">
-        <v>0.4894475107197138</v>
+        <v>0.3127510845320103</v>
       </c>
       <c r="H2">
-        <v>0.6351169897501734</v>
+        <v>0.2611066779549844</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03785625716331964</v>
+        <v>0.06435609794820252</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4733758092774849</v>
+        <v>0.3044655910266982</v>
       </c>
       <c r="M2">
-        <v>0.2872598945466933</v>
+        <v>0.4106294632655221</v>
       </c>
       <c r="N2">
-        <v>1.371259889002964</v>
+        <v>0.8228906664780169</v>
       </c>
       <c r="O2">
-        <v>2.211005508782762</v>
+        <v>1.159176538817334</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7913447093798709</v>
+        <v>1.697938744049054</v>
       </c>
       <c r="C3">
-        <v>0.3879792132131143</v>
+        <v>0.2968030185612491</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2926701382564314</v>
+        <v>0.1053233287089732</v>
       </c>
       <c r="F3">
-        <v>1.695403417438818</v>
+        <v>0.8466554707344685</v>
       </c>
       <c r="G3">
-        <v>0.4895540128132652</v>
+        <v>0.2948878164013138</v>
       </c>
       <c r="H3">
-        <v>0.6388070456828814</v>
+        <v>0.2581610041811544</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03589546736919758</v>
+        <v>0.05854288919435291</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4682654592467514</v>
+        <v>0.2781593580586446</v>
       </c>
       <c r="M3">
-        <v>0.2731674853945449</v>
+        <v>0.3595952087107719</v>
       </c>
       <c r="N3">
-        <v>1.380507341196122</v>
+        <v>0.8403523080028705</v>
       </c>
       <c r="O3">
-        <v>2.218697368680481</v>
+        <v>1.114794125988226</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7450806083366217</v>
+        <v>1.542424545891492</v>
       </c>
       <c r="C4">
-        <v>0.385907596297983</v>
+        <v>0.2901108766044018</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.293680579179485</v>
+        <v>0.1054727013616024</v>
       </c>
       <c r="F4">
-        <v>1.697154269175819</v>
+        <v>0.8220659022223771</v>
       </c>
       <c r="G4">
-        <v>0.4899658110189264</v>
+        <v>0.2846453913193088</v>
       </c>
       <c r="H4">
-        <v>0.6413583086783348</v>
+        <v>0.256816967498672</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03468315429760338</v>
+        <v>0.0549639594464999</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.465288173938589</v>
+        <v>0.2622190312371941</v>
       </c>
       <c r="M4">
-        <v>0.2645912384408859</v>
+        <v>0.3283629174594722</v>
       </c>
       <c r="N4">
-        <v>1.386666153842171</v>
+        <v>0.8520220476224765</v>
       </c>
       <c r="O4">
-        <v>2.224743154001686</v>
+        <v>1.090045016270281</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7262502167925788</v>
+        <v>1.479067227182412</v>
       </c>
       <c r="C5">
-        <v>0.3850681315511366</v>
+        <v>0.287391389821039</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2941147443753245</v>
+        <v>0.1055625624881831</v>
       </c>
       <c r="F5">
-        <v>1.698085079305656</v>
+        <v>0.8123956290691012</v>
       </c>
       <c r="G5">
-        <v>0.4902206704576386</v>
+        <v>0.2806439827954321</v>
       </c>
       <c r="H5">
-        <v>0.6424698272742617</v>
+        <v>0.2563816467981326</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03418704770137637</v>
+        <v>0.0535028968532778</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4641154544250554</v>
+        <v>0.2557735870633024</v>
       </c>
       <c r="M5">
-        <v>0.2611158948211525</v>
+        <v>0.3156577500729867</v>
       </c>
       <c r="N5">
-        <v>1.389296985060895</v>
+        <v>0.8570098123533185</v>
       </c>
       <c r="O5">
-        <v>2.227539509889056</v>
+        <v>1.080558104784075</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7231248516869471</v>
+        <v>1.468547326065789</v>
       </c>
       <c r="C6">
-        <v>0.3849290286063365</v>
+        <v>0.2869402729292716</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2941881914067377</v>
+        <v>0.1055792164009137</v>
       </c>
       <c r="F6">
-        <v>1.698252771620893</v>
+        <v>0.8108105659032319</v>
       </c>
       <c r="G6">
-        <v>0.490268245471718</v>
+        <v>0.2799896836557352</v>
       </c>
       <c r="H6">
-        <v>0.6426587357232023</v>
+        <v>0.2563160236180622</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03410454482709113</v>
+        <v>0.05326012447032724</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4639231799114185</v>
+        <v>0.2547062862119702</v>
       </c>
       <c r="M6">
-        <v>0.2605400059929224</v>
+        <v>0.3135493076094917</v>
       </c>
       <c r="N6">
-        <v>1.389741149207623</v>
+        <v>0.8578518789605099</v>
       </c>
       <c r="O6">
-        <v>2.228023933342669</v>
+        <v>1.079018093160684</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7448265616833396</v>
+        <v>1.541570041890623</v>
       </c>
       <c r="C7">
-        <v>0.3858962556483618</v>
+        <v>0.2900741701932503</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2936863437231931</v>
+        <v>0.1054737967135413</v>
       </c>
       <c r="F7">
-        <v>1.697165942192058</v>
+        <v>0.8219340890861773</v>
       </c>
       <c r="G7">
-        <v>0.4899688957646973</v>
+        <v>0.284590741550268</v>
       </c>
       <c r="H7">
-        <v>0.6413730079848534</v>
+        <v>0.2568106473004548</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03467647201143365</v>
+        <v>0.0549442659178716</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.465272193798981</v>
+        <v>0.2621319055039777</v>
       </c>
       <c r="M7">
-        <v>0.2645442892030303</v>
+        <v>0.3281914857298389</v>
       </c>
       <c r="N7">
-        <v>1.386701143757982</v>
+        <v>0.8520883819429841</v>
       </c>
       <c r="O7">
-        <v>2.224779519775893</v>
+        <v>1.089914688363848</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8407861003877031</v>
+        <v>1.863984543907577</v>
       </c>
       <c r="C8">
-        <v>0.3902056760042996</v>
+        <v>0.3039710258915562</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2916683655288121</v>
+        <v>0.105264842117224</v>
       </c>
       <c r="F8">
-        <v>1.694277362816699</v>
+        <v>0.8741383015729554</v>
       </c>
       <c r="G8">
-        <v>0.4894122997775625</v>
+        <v>0.3064350400222651</v>
       </c>
       <c r="H8">
-        <v>0.6363300859648575</v>
+        <v>0.2599918383974114</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03718193247985013</v>
+        <v>0.06235356591520258</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4715805634760812</v>
+        <v>0.2953494495244229</v>
       </c>
       <c r="M8">
-        <v>0.2823851178843952</v>
+        <v>0.3930092166218202</v>
       </c>
       <c r="N8">
-        <v>1.37434870370484</v>
+        <v>0.8287108248653823</v>
       </c>
       <c r="O8">
-        <v>2.21338306850933</v>
+        <v>1.143335390797446</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02957798016115</v>
+        <v>2.497995980293979</v>
       </c>
       <c r="C9">
-        <v>0.3987973800178253</v>
+        <v>0.3314892029414835</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2884149804777021</v>
+        <v>0.1058207340672386</v>
       </c>
       <c r="F9">
-        <v>1.69545630977953</v>
+        <v>0.9888719157941068</v>
       </c>
       <c r="G9">
-        <v>0.4910727635191279</v>
+        <v>0.3555055662147169</v>
       </c>
       <c r="H9">
-        <v>0.628704560970121</v>
+        <v>0.2701277893061445</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04202761650287101</v>
+        <v>0.07681755697248605</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4852172251377169</v>
+        <v>0.362310227026498</v>
       </c>
       <c r="M9">
-        <v>0.3179671020490034</v>
+        <v>0.5211138355874567</v>
       </c>
       <c r="N9">
-        <v>1.35393427786795</v>
+        <v>0.7906837789892123</v>
       </c>
       <c r="O9">
-        <v>2.201534717473663</v>
+        <v>1.269395926308022</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.168601037914016</v>
+        <v>2.966057355110081</v>
       </c>
       <c r="C10">
-        <v>0.4051899202546423</v>
+        <v>0.3518972501202171</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2864514975528394</v>
+        <v>0.1068622643735075</v>
       </c>
       <c r="F10">
-        <v>1.700487196284158</v>
+        <v>1.081860912688626</v>
       </c>
       <c r="G10">
-        <v>0.493976120601161</v>
+        <v>0.3960566350069286</v>
       </c>
       <c r="H10">
-        <v>0.6244795679008917</v>
+        <v>0.2802605514020513</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04554551687598973</v>
+        <v>0.08742061187123795</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4959992746114636</v>
+        <v>0.4128275714138283</v>
       </c>
       <c r="M10">
-        <v>0.3444603146920215</v>
+        <v>0.6161152404015553</v>
       </c>
       <c r="N10">
-        <v>1.341249106349977</v>
+        <v>0.7679373260119604</v>
       </c>
       <c r="O10">
-        <v>2.199238237231754</v>
+        <v>1.377129815725937</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.231903822725656</v>
+        <v>3.179763815534045</v>
       </c>
       <c r="C11">
-        <v>0.408114307597188</v>
+        <v>0.361229846518782</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2856504440029966</v>
+        <v>0.1074839026360337</v>
       </c>
       <c r="F11">
-        <v>1.703678843426999</v>
+        <v>1.126323961191488</v>
       </c>
       <c r="G11">
-        <v>0.4956637650685849</v>
+        <v>0.4156457829331259</v>
       </c>
       <c r="H11">
-        <v>0.6228561200700966</v>
+        <v>0.2855264380241636</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0471365232056371</v>
+        <v>0.09224296687222022</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.501068298984606</v>
+        <v>0.4361460607549219</v>
       </c>
       <c r="M11">
-        <v>0.3565865617552149</v>
+        <v>0.6595912933544312</v>
       </c>
       <c r="N11">
-        <v>1.335978885319577</v>
+        <v>0.7588172399327817</v>
       </c>
       <c r="O11">
-        <v>2.199586846457493</v>
+        <v>1.429925169047777</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.255882374892906</v>
+        <v>3.260825944594956</v>
       </c>
       <c r="C12">
-        <v>0.4092239428287172</v>
+        <v>0.3647714946724108</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2853603167826577</v>
+        <v>0.10774146704129</v>
       </c>
       <c r="F12">
-        <v>1.705017131970692</v>
+        <v>1.143495790357107</v>
       </c>
       <c r="G12">
-        <v>0.4963556732529497</v>
+        <v>0.423242511385169</v>
       </c>
       <c r="H12">
-        <v>0.6222842457513735</v>
+        <v>0.2876213734674167</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04773763276673293</v>
+        <v>0.09406923917707388</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5030112455388434</v>
+        <v>0.4450290851775378</v>
       </c>
       <c r="M12">
-        <v>0.3611888808570072</v>
+        <v>0.6760975221841861</v>
       </c>
       <c r="N12">
-        <v>1.334055007124697</v>
+        <v>0.7555491714070897</v>
       </c>
       <c r="O12">
-        <v>2.199919297946053</v>
+        <v>1.450506402575826</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.250717870620463</v>
+        <v>3.243361316921209</v>
       </c>
       <c r="C13">
-        <v>0.4089848656645216</v>
+        <v>0.3640083898387587</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2854222137287543</v>
+        <v>0.1076849952803123</v>
       </c>
       <c r="F13">
-        <v>1.704723142864424</v>
+        <v>1.139782252524952</v>
       </c>
       <c r="G13">
-        <v>0.4962043074628042</v>
+        <v>0.4215982297103409</v>
       </c>
       <c r="H13">
-        <v>0.622405502156937</v>
+        <v>0.2871655985534858</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04760823451041318</v>
+        <v>0.09367590707562812</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5025917588925353</v>
+        <v>0.4431135475144288</v>
       </c>
       <c r="M13">
-        <v>0.3601972328521299</v>
+        <v>0.6725406158481988</v>
       </c>
       <c r="N13">
-        <v>1.33446615525942</v>
+        <v>0.7562446084820493</v>
       </c>
       <c r="O13">
-        <v>2.199838782549335</v>
+        <v>1.446046944370863</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.233876417923511</v>
+        <v>3.186429976429963</v>
       </c>
       <c r="C14">
-        <v>0.4082055539030875</v>
+        <v>0.3615210643344113</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2856263104316064</v>
+        <v>0.1075046430687507</v>
       </c>
       <c r="F14">
-        <v>1.703786347263645</v>
+        <v>1.12772984994325</v>
       </c>
       <c r="G14">
-        <v>0.4957196294762554</v>
+        <v>0.4162671017861754</v>
       </c>
       <c r="H14">
-        <v>0.6228082122555492</v>
+        <v>0.2856967297660589</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04718600449201915</v>
+        <v>0.09239321058537797</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5012276781829428</v>
+        <v>0.4368757887506405</v>
       </c>
       <c r="M14">
-        <v>0.356964991264519</v>
+        <v>0.6609483803435765</v>
       </c>
       <c r="N14">
-        <v>1.335819167514678</v>
+        <v>0.7585446025032212</v>
       </c>
       <c r="O14">
-        <v>2.199610179819047</v>
+        <v>1.431606335863705</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.223561428863491</v>
+        <v>3.151576342772671</v>
       </c>
       <c r="C15">
-        <v>0.4077284901241853</v>
+        <v>0.3599985127945757</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2857530453926849</v>
+        <v>0.1073970861551921</v>
       </c>
       <c r="F15">
-        <v>1.703229415853144</v>
+        <v>1.12039171524583</v>
       </c>
       <c r="G15">
-        <v>0.4954296329504615</v>
+        <v>0.413025355405253</v>
       </c>
       <c r="H15">
-        <v>0.6230604682828016</v>
+        <v>0.2848103388783443</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04692719704540593</v>
+        <v>0.09160755082317706</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5003951831042031</v>
+        <v>0.4330619901456316</v>
       </c>
       <c r="M15">
-        <v>0.3549864913010126</v>
+        <v>0.6538535434033648</v>
       </c>
       <c r="N15">
-        <v>1.336657279204331</v>
+        <v>0.7599778509242654</v>
       </c>
       <c r="O15">
-        <v>2.199496259897472</v>
+        <v>1.422839084567187</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.164465137907257</v>
+        <v>2.952108864237459</v>
       </c>
       <c r="C16">
-        <v>0.404999123879378</v>
+        <v>0.3512883737318475</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2865056993997221</v>
+        <v>0.1068246899560279</v>
       </c>
       <c r="F16">
-        <v>1.700296771431852</v>
+        <v>1.079000648806684</v>
       </c>
       <c r="G16">
-        <v>0.4938732183358638</v>
+        <v>0.3948006409766265</v>
       </c>
       <c r="H16">
-        <v>0.6245916679049799</v>
+        <v>0.2799301657386053</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04544135090640822</v>
+        <v>0.08710546407397857</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4956712895501028</v>
+        <v>0.4113108080004793</v>
       </c>
       <c r="M16">
-        <v>0.3436693047862818</v>
+        <v>0.6132796587584437</v>
       </c>
       <c r="N16">
-        <v>1.341603586374887</v>
+        <v>0.7685588015102809</v>
       </c>
       <c r="O16">
-        <v>2.199243498875518</v>
+        <v>1.373759432483695</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.128225877647878</v>
+        <v>2.829958782217432</v>
       </c>
       <c r="C17">
-        <v>0.4033288556000798</v>
+        <v>0.3459578895374449</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2869910031250669</v>
+        <v>0.1065120369355945</v>
       </c>
       <c r="F17">
-        <v>1.698728860086661</v>
+        <v>1.054178735277318</v>
       </c>
       <c r="G17">
-        <v>0.4930124322546305</v>
+        <v>0.3839229522509555</v>
       </c>
       <c r="H17">
-        <v>0.625607441717591</v>
+        <v>0.2771089383017653</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04452742660575382</v>
+        <v>0.08434352323286021</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4928152533132675</v>
+        <v>0.3980566300131017</v>
       </c>
       <c r="M17">
-        <v>0.3367453935228539</v>
+        <v>0.5884591255355431</v>
       </c>
       <c r="N17">
-        <v>1.344766054536827</v>
+        <v>0.7741435450493412</v>
       </c>
       <c r="O17">
-        <v>2.199445356043128</v>
+        <v>1.344651129702754</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.107387799881394</v>
+        <v>2.759773475897589</v>
       </c>
       <c r="C18">
-        <v>0.4023697113884452</v>
+        <v>0.3428964987614052</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2872788122265746</v>
+        <v>0.1063460656918025</v>
       </c>
       <c r="F18">
-        <v>1.697912051155754</v>
+        <v>1.040103808011125</v>
       </c>
       <c r="G18">
-        <v>0.4925518601363734</v>
+        <v>0.3777729885357815</v>
       </c>
       <c r="H18">
-        <v>0.6262197885275782</v>
+        <v>0.2755476197261117</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04400088768815635</v>
+        <v>0.08275481216628577</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.491188005371427</v>
+        <v>0.3904647127666152</v>
       </c>
       <c r="M18">
-        <v>0.3327699602993661</v>
+        <v>0.5742070801748369</v>
       </c>
       <c r="N18">
-        <v>1.346632121842411</v>
+        <v>0.7774706985315802</v>
       </c>
       <c r="O18">
-        <v>2.199692596885683</v>
+        <v>1.328262411424646</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.100333425490533</v>
+        <v>2.736021646404765</v>
       </c>
       <c r="C19">
-        <v>0.4020452316116518</v>
+        <v>0.3418607317204732</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2873777505191093</v>
+        <v>0.1062922241402759</v>
       </c>
       <c r="F19">
-        <v>1.697650100062731</v>
+        <v>1.035372269339234</v>
       </c>
       <c r="G19">
-        <v>0.4924018464580087</v>
+        <v>0.3757085976893819</v>
       </c>
       <c r="H19">
-        <v>0.6264319460693599</v>
+        <v>0.2750293353406335</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04382246155269343</v>
+        <v>0.08221687321371007</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4906397099228457</v>
+        <v>0.3878995117902946</v>
       </c>
       <c r="M19">
-        <v>0.3314251618923549</v>
+        <v>0.5693855554373641</v>
       </c>
       <c r="N19">
-        <v>1.347272032815688</v>
+        <v>0.7786166935549019</v>
       </c>
       <c r="O19">
-        <v>2.199798828753984</v>
+        <v>1.322772902148586</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.132083021060055</v>
+        <v>2.842954230513385</v>
       </c>
       <c r="C20">
-        <v>0.4035064989950143</v>
+        <v>0.3465248525189821</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2869384441215672</v>
+        <v>0.106543878688349</v>
       </c>
       <c r="F20">
-        <v>1.698886969778073</v>
+        <v>1.056799998582974</v>
       </c>
       <c r="G20">
-        <v>0.493100490204526</v>
+        <v>0.3850697665626228</v>
       </c>
       <c r="H20">
-        <v>0.6254964028244387</v>
+        <v>0.2774028650028697</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04462480607803343</v>
+        <v>0.08463754642376387</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4931176837359459</v>
+        <v>0.3994642663213881</v>
       </c>
       <c r="M20">
-        <v>0.3374817317345418</v>
+        <v>0.591098784120085</v>
       </c>
       <c r="N20">
-        <v>1.344424530586764</v>
+        <v>0.7735370784085376</v>
       </c>
       <c r="O20">
-        <v>2.19941029507612</v>
+        <v>1.347712849478285</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.238822978715689</v>
+        <v>3.203148200436374</v>
       </c>
       <c r="C21">
-        <v>0.4084343970312716</v>
+        <v>0.3622514411410975</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2855660039339973</v>
+        <v>0.1075570079210451</v>
       </c>
       <c r="F21">
-        <v>1.704057988772277</v>
+        <v>1.131260654108786</v>
       </c>
       <c r="G21">
-        <v>0.4958605566615546</v>
+        <v>0.4178280121787452</v>
       </c>
       <c r="H21">
-        <v>0.6226887628066038</v>
+        <v>0.2861253812878743</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04731006112128</v>
+        <v>0.09276996305958818</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5016277077914992</v>
+        <v>0.43870650114944</v>
       </c>
       <c r="M21">
-        <v>0.3579141000051607</v>
+        <v>0.6643520939411758</v>
       </c>
       <c r="N21">
-        <v>1.335419806125806</v>
+        <v>0.7578639292806955</v>
       </c>
       <c r="O21">
-        <v>2.199671885394224</v>
+        <v>1.43583154648141</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.308624741012295</v>
+        <v>3.43936144183732</v>
       </c>
       <c r="C22">
-        <v>0.4116680232773433</v>
+        <v>0.3725742604425903</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2847460418271872</v>
+        <v>0.1083487881605407</v>
       </c>
       <c r="F22">
-        <v>1.708193344553408</v>
+        <v>1.181887621443778</v>
       </c>
       <c r="G22">
-        <v>0.4979724097556044</v>
+        <v>0.4402866742179015</v>
       </c>
       <c r="H22">
-        <v>0.6211037871548086</v>
+        <v>0.2924172346030787</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04905703012134666</v>
+        <v>0.09808600080458518</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5073259014686613</v>
+        <v>0.4646636008427265</v>
       </c>
       <c r="M22">
-        <v>0.3713281447895653</v>
+        <v>0.7124796135923575</v>
       </c>
       <c r="N22">
-        <v>1.329953390764587</v>
+        <v>0.7487064941441517</v>
       </c>
       <c r="O22">
-        <v>2.201011210582976</v>
+        <v>1.496876683269079</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.271366980399932</v>
+        <v>3.313208037283232</v>
       </c>
       <c r="C23">
-        <v>0.4099410308892573</v>
+        <v>0.3670604946882463</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2851766367380399</v>
+        <v>0.1079140260210032</v>
       </c>
       <c r="F23">
-        <v>1.705917131683805</v>
+        <v>1.154679237099586</v>
       </c>
       <c r="G23">
-        <v>0.4968170683956998</v>
+        <v>0.4281990246293077</v>
       </c>
       <c r="H23">
-        <v>0.6219268575888037</v>
+        <v>0.2890028149913348</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04812538254688548</v>
+        <v>0.09524853310527703</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5042722526471408</v>
+        <v>0.450779970290526</v>
       </c>
       <c r="M23">
-        <v>0.364163403586339</v>
+        <v>0.6867680557168967</v>
       </c>
       <c r="N23">
-        <v>1.332832643254605</v>
+        <v>0.7534915106570779</v>
       </c>
       <c r="O23">
-        <v>2.200189454213842</v>
+        <v>1.463964284741053</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.130339217756614</v>
+        <v>2.837078864250941</v>
       </c>
       <c r="C24">
-        <v>0.4034261829322361</v>
+        <v>0.3462685187060401</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2869621786287198</v>
+        <v>0.1065294401870354</v>
       </c>
       <c r="F24">
-        <v>1.69881522483891</v>
+        <v>1.05561431821647</v>
       </c>
       <c r="G24">
-        <v>0.4930605723528458</v>
+        <v>0.3845509696939473</v>
       </c>
       <c r="H24">
-        <v>0.6255465151500488</v>
+        <v>0.2772697923368952</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04458078427898471</v>
+        <v>0.08450462116077517</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4929809090598667</v>
+        <v>0.3988277867805436</v>
       </c>
       <c r="M24">
-        <v>0.3371488169588375</v>
+        <v>0.5899053400333401</v>
       </c>
       <c r="N24">
-        <v>1.344578784281588</v>
+        <v>0.7738109000610365</v>
       </c>
       <c r="O24">
-        <v>2.199425737496227</v>
+        <v>1.346327571467071</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.978444838160101</v>
+        <v>2.326173657842503</v>
       </c>
       <c r="C25">
-        <v>0.3964585997531032</v>
+        <v>0.3240135532785615</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2892199936559692</v>
+        <v>0.1055625186206957</v>
       </c>
       <c r="F25">
-        <v>1.694405479109179</v>
+        <v>0.9563943516535858</v>
       </c>
       <c r="G25">
-        <v>0.4903283507331793</v>
+        <v>0.341493608503626</v>
       </c>
       <c r="H25">
-        <v>0.6305253882793806</v>
+        <v>0.2669375861715082</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04072406832683839</v>
+        <v>0.07291005385694405</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4813935029359442</v>
+        <v>0.3439795459278798</v>
       </c>
       <c r="M25">
-        <v>0.3082786820899557</v>
+        <v>0.4863240421389392</v>
       </c>
       <c r="N25">
-        <v>1.359050076991849</v>
+        <v>0.8000917553337459</v>
       </c>
       <c r="O25">
-        <v>2.203615136609614</v>
+        <v>1.232800084935576</v>
       </c>
     </row>
   </sheetData>
